--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-best-speed.xlsx
@@ -155,7 +155,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 12 сек.</t>
+    <t>2 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -173,7 +173,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 40 сек.</t>
+    <t>16 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>16–17</t>
@@ -224,7 +224,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 34 сек.</t>
+    <t>5 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -242,7 +242,7 @@
     <t>D1mchik</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -251,7 +251,7 @@
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 8 сек.</t>
+    <t>1 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>25–26</t>
@@ -260,7 +260,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 54 сек.</t>
+    <t>2 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>Alfa-Veloce</t>
@@ -284,13 +284,13 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>9 ч. 16 мин. 9 сек.</t>
+    <t>9 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -308,7 +308,7 @@
     <t>mexanik</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 2 сек.</t>
+    <t>1 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>32–34</t>
@@ -338,7 +338,7 @@
     <t>Chumavik1</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 45 сек.</t>
+    <t>1 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>qw10fing</t>
@@ -386,7 +386,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>3 ч. 45 мин. 1 сек.</t>
+    <t>3 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -395,7 +395,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 14 сек.</t>
+    <t>3 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>43–44</t>
@@ -404,7 +404,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 9 сек.</t>
+    <t>0 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>serg_omen</t>
@@ -428,7 +428,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 15 сек.</t>
+    <t>3 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>zvv</t>
@@ -452,7 +452,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 12 сек.</t>
+    <t>5 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>50–51</t>
@@ -467,7 +467,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 7 сек.</t>
+    <t>3 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -524,7 +524,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -551,7 +551,7 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 9 сек.</t>
+    <t>4 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>KAYFARYK</t>
@@ -581,7 +581,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 34 сек.</t>
+    <t>4 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>66–67</t>
@@ -590,7 +590,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 3 сек.</t>
+    <t>10 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>Переборыч</t>
@@ -632,7 +632,7 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 45 сек.</t>
+    <t>4 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>73–74</t>
@@ -680,7 +680,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 5 сек.</t>
+    <t>6 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>-santiago-</t>
@@ -782,7 +782,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 20 сек.</t>
+    <t>2 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>92–95</t>
@@ -797,7 +797,7 @@
     <t>marinka19</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>a_mikhaylov</t>
@@ -818,7 +818,7 @@
     <t>Guillentes</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>Sergey_Ch</t>
@@ -914,7 +914,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>110</t>
@@ -923,7 +923,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 1 сек.</t>
+    <t>15 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -941,7 +941,7 @@
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 57 сек.</t>
+    <t>9 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -971,7 +971,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>12 ч. 29 мин. 5 сек.</t>
+    <t>12 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>117–119</t>
@@ -980,7 +980,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 0 сек.</t>
+    <t>2 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Vai_Cavalo</t>
@@ -1001,7 +1001,7 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 0 сек.</t>
+    <t>2 ч. 00 мин. 00 сек.</t>
   </si>
   <si>
     <t>121–123</t>
@@ -1028,7 +1028,7 @@
     <t>Месть</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>ACnuPAHT</t>
@@ -1043,13 +1043,13 @@
     <t>InHUCHable</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 0 сек.</t>
+    <t>1 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>flethentel</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 29 сек.</t>
+    <t>3 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1139,7 +1139,7 @@
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 12 сек.</t>
+    <t>12 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>Kenichi</t>
@@ -1181,7 +1181,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 1 сек.</t>
+    <t>6 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>146–149</t>
@@ -1190,19 +1190,19 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 6 сек.</t>
+    <t>1 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 1 сек.</t>
+    <t>1 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ethicon</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 3 сек.</t>
+    <t>2 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>awefork</t>
@@ -1238,7 +1238,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 50 сек.</t>
+    <t>6 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1277,7 +1277,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 12 сек.</t>
+    <t>8 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>alanen</t>
@@ -1301,7 +1301,7 @@
     <t>Despicable_Me</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 5 сек.</t>
+    <t>3 ч. 02 мин. 05 сек.</t>
   </si>
   <si>
     <t>бегущий_ананас</t>
@@ -1313,7 +1313,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>7 ч. 32 мин. 0 сек.</t>
+    <t>7 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>165–169</t>
@@ -1340,7 +1340,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 0 сек.</t>
+    <t>6 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>Numb_kz</t>
@@ -1361,7 +1361,7 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 3 сек.</t>
+    <t>1 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>172–173</t>
@@ -1385,7 +1385,7 @@
     <t>strix_qb</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>lexa007</t>
@@ -1412,7 +1412,7 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 0 сек.</t>
+    <t>3 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>179–180</t>
@@ -1481,7 +1481,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>ussper</t>
@@ -1505,7 +1505,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>12 ч. 34 мин. 1 сек.</t>
+    <t>12 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>192–193</t>
@@ -1514,7 +1514,7 @@
     <t>Cybernetix</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 9 сек.</t>
+    <t>1 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>паукан</t>
@@ -1562,7 +1562,7 @@
     <t>Инженер555</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>_nikki_</t>
@@ -1649,7 +1649,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 44 мин. 5 сек.</t>
+    <t>14 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>211</t>
@@ -1667,7 +1667,7 @@
     <t>SmanR</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 52 сек.</t>
+    <t>3 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>vfyeirf</t>
@@ -1706,7 +1706,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>218–219</t>
@@ -1745,7 +1745,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>223–225</t>
@@ -1787,7 +1787,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 41 сек.</t>
+    <t>5 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>229–230</t>
@@ -1811,7 +1811,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>KatanaKombat</t>
@@ -1844,7 +1844,7 @@
     <t>Yanci</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 58 сек.</t>
+    <t>2 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -1862,13 +1862,13 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 7 сек.</t>
+    <t>3 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>5 ч. 28 мин. 6 сек.</t>
+    <t>5 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>240–242</t>
@@ -1883,13 +1883,13 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 28 сек.</t>
+    <t>5 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>Крестоносец</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 24 сек.</t>
+    <t>9 ч. 01 мин. 24 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2006,7 +2006,7 @@
     <t>HollowDante</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 9 сек.</t>
+    <t>2 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>259–261</t>
@@ -2063,13 +2063,13 @@
     <t>T0RM0ZZZ</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>rovno</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 24 сек.</t>
+    <t>3 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>268–269</t>
@@ -2084,7 +2084,7 @@
     <t>dctvcjcfnm</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>270–272</t>
@@ -2126,13 +2126,13 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 6 сек.</t>
+    <t>3 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>chat</t>
   </si>
   <si>
-    <t>4 ч. 16 мин. 4 сек.</t>
+    <t>4 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>277–278</t>
@@ -2147,7 +2147,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 6 сек.</t>
+    <t>10 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>279–281</t>
@@ -2168,7 +2168,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 0 сек.</t>
+    <t>3 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>282–283</t>
@@ -2279,7 +2279,7 @@
     <t>igrom</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 30 сек.</t>
+    <t>9 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>NDancer</t>
@@ -2294,7 +2294,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>BI-FI-Car</t>
@@ -2315,13 +2315,13 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 36 сек.</t>
+    <t>6 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>Reset82</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 36 сек.</t>
+    <t>8 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2330,7 +2330,7 @@
     <t>Смолвель</t>
   </si>
   <si>
-    <t>4 ч. 37 мин. 1 сек.</t>
+    <t>4 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>304</t>
@@ -2345,7 +2345,7 @@
     <t>vovetRU</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>iBumble</t>
@@ -2357,7 +2357,7 @@
     <t>Smalllynx</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 12 сек.</t>
+    <t>2 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>Инж</t>
@@ -2369,7 +2369,7 @@
     <t>МихаПерец</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 8 сек.</t>
+    <t>3 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>310–311</t>
@@ -2414,7 +2414,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 7 сек.</t>
+    <t>16 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>316–319</t>
@@ -2429,7 +2429,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 2 сек.</t>
+    <t>2 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>Smuglik</t>
@@ -2441,7 +2441,7 @@
     <t>Аурика</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>320–321</t>
@@ -2471,7 +2471,7 @@
     <t>sage_ol</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 38 сек.</t>
+    <t>2 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>agor</t>
@@ -2507,7 +2507,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 8 сек.</t>
+    <t>4 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -2546,7 +2546,7 @@
     <t>Марафонец</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>inobject</t>
@@ -2567,7 +2567,7 @@
     <t>Andrew2</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 6 сек.</t>
+    <t>3 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>338–339</t>
@@ -2591,7 +2591,7 @@
     <t>fdjk</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 37 сек.</t>
+    <t>2 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>341–344</t>
@@ -2606,7 +2606,7 @@
     <t>Клаудиа</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>Nebuchadnezzar</t>
@@ -2657,19 +2657,19 @@
     <t>BlazWin</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 9 сек.</t>
+    <t>2 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>Spaider</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 18 сек.</t>
+    <t>5 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>Супербармен</t>
@@ -2684,13 +2684,13 @@
     <t>Prana</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 8 сек.</t>
+    <t>1 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 1 сек.</t>
+    <t>3 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -2699,7 +2699,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>9 ч. 23 мин. 2 сек.</t>
+    <t>9 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>356–357</t>
@@ -2708,7 +2708,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 8 сек.</t>
+    <t>2 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>strann73</t>
@@ -2762,13 +2762,13 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 25 сек.</t>
+    <t>12 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>Titanium</t>
   </si>
   <si>
-    <t>10 ч. 10 мин. 8 сек.</t>
+    <t>10 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>365–366</t>
@@ -2807,7 +2807,7 @@
     <t>vulp</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 13 сек.</t>
+    <t>2 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>motivation</t>
@@ -2828,7 +2828,7 @@
     <t>Гавриил</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 48 сек.</t>
+    <t>2 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -2864,7 +2864,7 @@
     <t>С_УБОЙНОГО</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 5 сек.</t>
+    <t>10 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>378–381</t>
@@ -2879,7 +2879,7 @@
     <t>inmpower</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 3 сек.</t>
+    <t>3 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>JluCa</t>
@@ -2915,7 +2915,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>385–386</t>
@@ -2924,13 +2924,13 @@
     <t>adviser105</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 4 сек.</t>
+    <t>2 ч. 07 мин. 04 сек.</t>
   </si>
   <si>
     <t>Сима44</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 25 сек.</t>
+    <t>10 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>387</t>
@@ -2987,7 +2987,7 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 7 сек.</t>
+    <t>2 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>БурячОК</t>
@@ -2999,7 +2999,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 1 сек.</t>
+    <t>3 ч. 12 мин. 01 сек.</t>
   </si>
   <si>
     <t>397–398</t>
@@ -3008,7 +3008,7 @@
     <t>DonPiedro</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 25 сек.</t>
+    <t>2 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>zewz</t>
@@ -3023,7 +3023,7 @@
     <t>velsher123</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 0 сек.</t>
+    <t>2 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>hangling</t>
@@ -3065,13 +3065,13 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 4 сек.</t>
+    <t>5 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>407–409</t>
@@ -3080,7 +3080,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>exploration</t>
@@ -3092,7 +3092,7 @@
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 3 сек.</t>
+    <t>7 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>410</t>
@@ -3107,7 +3107,7 @@
     <t>Baltasor</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>tararamspb</t>
@@ -3122,7 +3122,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>Vk625</t>
@@ -3134,7 +3134,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 51 сек.</t>
+    <t>4 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>416–419</t>
@@ -3143,7 +3143,7 @@
     <t>Leh</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 2 сек.</t>
+    <t>1 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>VQV</t>
@@ -3191,7 +3191,7 @@
     <t>perrito</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 8 сек.</t>
+    <t>2 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>shvalegor</t>
@@ -3206,13 +3206,13 @@
     <t>sonjun</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 30 сек.</t>
+    <t>3 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
@@ -3224,7 +3224,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 1 сек.</t>
+    <t>4 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>429–430</t>
@@ -3233,7 +3233,7 @@
     <t>слоупочище</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>proshik</t>
@@ -3257,13 +3257,13 @@
     <t>Днище3</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>Vlad100</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 2 сек.</t>
+    <t>2 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>mmc</t>
@@ -3278,7 +3278,7 @@
     <t>Ильк</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 30 сек.</t>
+    <t>2 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>CallMeDesimal</t>
@@ -3308,7 +3308,7 @@
     <t>KeSeG</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3335,7 +3335,7 @@
     <t>paintedhat</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 3 сек.</t>
+    <t>1 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>443–444</t>
@@ -3368,7 +3368,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 8 сек.</t>
+    <t>5 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>447</t>
@@ -3377,7 +3377,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 54 сек.</t>
+    <t>2 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>448–450</t>
@@ -3422,13 +3422,13 @@
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 5 сек.</t>
+    <t>7 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>9 ч. 22 мин. 5 сек.</t>
+    <t>9 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>lybashevv</t>
@@ -3452,7 +3452,7 @@
     <t>snail_qwerty</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 28 сек.</t>
+    <t>3 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>458–461</t>
@@ -3545,7 +3545,7 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 11 сек.</t>
+    <t>3 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>FreeAvenger</t>
@@ -3608,7 +3608,7 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 39 сек.</t>
+    <t>2 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>Mbl</t>
@@ -3629,13 +3629,13 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 4 сек.</t>
+    <t>7 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>Paulzh</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 41 сек.</t>
+    <t>13 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -3662,7 +3662,7 @@
     <t>mastodont</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>Антоний_</t>
@@ -3695,7 +3695,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>490</t>
@@ -3704,7 +3704,7 @@
     <t>kondra</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 2 сек.</t>
+    <t>8 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -3728,13 +3728,13 @@
     <t>misharin</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 47 сек.</t>
+    <t>8 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>vigovo2859</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 38 сек.</t>
+    <t>10 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>495</t>
@@ -3743,7 +3743,7 @@
     <t>TIMA101</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 6 сек.</t>
+    <t>5 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -3752,7 +3752,7 @@
     <t>destructive</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>497–498</t>
@@ -3776,7 +3776,7 @@
     <t>arhifant</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 37 сек.</t>
+    <t>2 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>bumerang1676</t>
@@ -3797,7 +3797,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 17 сек.</t>
+    <t>26 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>503–504</t>
@@ -3839,7 +3839,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>11 ч. 15 мин. 5 сек.</t>
+    <t>11 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>509–510</t>
@@ -3848,7 +3848,7 @@
     <t>XHidden</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>natalishka</t>
@@ -3872,7 +3872,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 15 сек.</t>
+    <t>3 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>513–514</t>
@@ -3881,7 +3881,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 5 сек.</t>
+    <t>2 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>volk70</t>
@@ -3944,13 +3944,13 @@
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>a_inc</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 4 сек.</t>
+    <t>4 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>523</t>
@@ -4001,7 +4001,7 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>529</t>
@@ -4019,7 +4019,7 @@
     <t>efox</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 13 сек.</t>
+    <t>5 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4046,7 +4046,7 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 30 сек.</t>
+    <t>8 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>534–538</t>
@@ -4061,13 +4061,13 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 1 сек.</t>
+    <t>3 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 29 сек.</t>
+    <t>4 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>AlViNic</t>
@@ -4088,7 +4088,7 @@
     <t>репка</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 3 сек.</t>
+    <t>6 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>540–541</t>
@@ -4145,7 +4145,7 @@
     <t>Knighterrant</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 22 сек.</t>
+    <t>4 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>547–548</t>
@@ -4178,7 +4178,7 @@
     <t>TARDIS</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 4 сек.</t>
+    <t>3 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>551–552</t>
@@ -4217,7 +4217,7 @@
     <t>ivanov</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 6 сек.</t>
+    <t>5 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>556</t>
@@ -4235,7 +4235,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>mikem</t>
@@ -4256,7 +4256,7 @@
     <t>Leopoleon</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>561–562</t>
@@ -4304,13 +4304,13 @@
     <t>nikolai5697</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 25 сек.</t>
+    <t>4 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>глупый</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>568–569</t>
@@ -4319,13 +4319,13 @@
     <t>1n1t</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 1 сек.</t>
+    <t>3 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>8Lawliet</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 15 сек.</t>
+    <t>9 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>570</t>
@@ -4334,7 +4334,7 @@
     <t>Аидочка</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>571</t>
@@ -4358,7 +4358,7 @@
     <t>valvlad</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 6 сек.</t>
+    <t>4 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>574</t>
@@ -4367,7 +4367,7 @@
     <t>Matatabi</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 25 сек.</t>
+    <t>10 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>575</t>
@@ -4418,7 +4418,7 @@
     <t>Safeon</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 14 сек.</t>
+    <t>5 ч. 02 мин. 14 сек.</t>
   </si>
   <si>
     <t>581</t>
@@ -4490,7 +4490,7 @@
     <t>quake</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 5 сек.</t>
+    <t>5 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>589</t>
@@ -4517,7 +4517,7 @@
     <t>lelf</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 9 сек.</t>
+    <t>3 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>592</t>
@@ -4571,7 +4571,7 @@
     <t>mark_sever</t>
   </si>
   <si>
-    <t>13 ч. 48 мин. 9 сек.</t>
+    <t>13 ч. 48 мин. 09 сек.</t>
   </si>
 </sst>
 </file>
